--- a/method_list.xlsx
+++ b/method_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15127\python_repos\2025-spring\2025-ORI391-NLP-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F775F349-F8F3-465C-B694-05E955D692B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE92B62E-02B6-4A54-B262-C7F1D342A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73E97F1F-208B-4C18-B494-8449F156D0BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>GD+Armijo backtracking</t>
   </si>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +540,9 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -551,6 +554,9 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -562,6 +568,9 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -573,6 +582,9 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -581,6 +593,9 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -589,6 +604,9 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -600,6 +618,9 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -610,6 +631,9 @@
       </c>
       <c r="C13" t="s">
         <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/method_list.xlsx
+++ b/method_list.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15127\python_repos\2025-spring\2025-ORI391-NLP-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE92B62E-02B6-4A54-B262-C7F1D342A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8FA04B-80AF-4FEF-B6E8-ABBE75673417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73E97F1F-208B-4C18-B494-8449F156D0BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{73E97F1F-208B-4C18-B494-8449F156D0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="numerical_results" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="efficiency" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="97">
   <si>
     <t>GD+Armijo backtracking</t>
   </si>
@@ -87,12 +91,256 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>Gradient Descent + Armijo backtracking</t>
+  </si>
+  <si>
+    <t>Gradient Descent + Wolfe line search</t>
+  </si>
+  <si>
+    <t>Modified Newton + Armijo backtracking</t>
+  </si>
+  <si>
+    <t>Modified Newton + Wolfe line search</t>
+  </si>
+  <si>
+    <t>Newton-CG + Armijo backtracking</t>
+  </si>
+  <si>
+    <t>Newton-CG + Wolfe line search</t>
+  </si>
+  <si>
+    <t>BFGS (quasi-Newton) + Armijo backtracking</t>
+  </si>
+  <si>
+    <t>BFGS (quasi-Newton) + Wolfe line search</t>
+  </si>
+  <si>
+    <t>DFP (quasi-Newton) + Armijo backtracking</t>
+  </si>
+  <si>
+    <t>DFP (quasi-Newton) + Wolfe line search</t>
+  </si>
+  <si>
+    <t>L-BFGS (quasi-Newton) + Armijo backtracking</t>
+  </si>
+  <si>
+    <t>L-BFGS (quasi-Newton) + Wolfe line search</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Algorithm Name</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Abbrev.</t>
+  </si>
+  <si>
+    <t>GD_a</t>
+  </si>
+  <si>
+    <t>GD_w</t>
+  </si>
+  <si>
+    <t>MNewton_a</t>
+  </si>
+  <si>
+    <t>MNewton_w</t>
+  </si>
+  <si>
+    <t>NewtonCG_a</t>
+  </si>
+  <si>
+    <t>NewtonCG_w</t>
+  </si>
+  <si>
+    <t>BFGS_a</t>
+  </si>
+  <si>
+    <t>BFGS_w</t>
+  </si>
+  <si>
+    <t>DFP_a</t>
+  </si>
+  <si>
+    <t>DFP_w</t>
+  </si>
+  <si>
+    <t>LBFGS_a</t>
+  </si>
+  <si>
+    <t>LBFGS_w</t>
+  </si>
+  <si>
+    <t>Problem Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P12</t>
+  </si>
+  <si>
+    <t>quad_10_10</t>
+  </si>
+  <si>
+    <t>quad_10_1000</t>
+  </si>
+  <si>
+    <t>quad_1000_10</t>
+  </si>
+  <si>
+    <t>quad_1000_1000</t>
+  </si>
+  <si>
+    <t>quartic_1</t>
+  </si>
+  <si>
+    <t>quartic_2</t>
+  </si>
+  <si>
+    <t>Rosenbrock_2</t>
+  </si>
+  <si>
+    <t>Rosenbrock_100</t>
+  </si>
+  <si>
+    <t>DataFit_2</t>
+  </si>
+  <si>
+    <t>Exponential_10</t>
+  </si>
+  <si>
+    <t>Exponential_1000</t>
+  </si>
+  <si>
+    <t>Genhumps_5</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>$f(x^*)$</t>
+  </si>
+  <si>
+    <t>$\Delta f(x^*)$</t>
+  </si>
+  <si>
+    <t>$Iter #$</t>
+  </si>
+  <si>
+    <t>CPU time</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>Armijo</t>
+  </si>
+  <si>
+    <t>Wolfe</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient Descent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified Newton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newton-CG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFGS (quasi-Newton) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFP (quasi-Newton) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-BFGS (quasi-Newton) </t>
+  </si>
+  <si>
+    <t>Iter #</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="171" formatCode="0.0E+00"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,15 +350,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -118,12 +372,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE3905C-9134-45C8-9996-33BA1B504EA4}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,4 +1057,6032 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E4370D-F8CF-452F-88F3-FC9C39EFA363}">
+  <dimension ref="B3:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB117DE-5A22-4623-B8E9-C97EAAF06438}">
+  <dimension ref="D6:V54"/>
+  <sheetViews>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43:V54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="8" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G7" s="3">
+        <v>8.8998999999999999E-7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5.6718999999999997E-20</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3.3680000000000002E-10</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>9</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1.4857E-12</v>
+      </c>
+      <c r="U7" s="3">
+        <v>9.4666999999999999E-7</v>
+      </c>
+      <c r="V7" s="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8.8998999999999999E-7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5.6718999999999997E-20</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3.3680000000000002E-10</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1">
+        <v>9</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.5852E-12</v>
+      </c>
+      <c r="U8" s="3">
+        <v>9.7824999999999991E-7</v>
+      </c>
+      <c r="V8" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.3555999999999999E-15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1.9502999999999999E-19</v>
+      </c>
+      <c r="N9" s="3">
+        <v>6.2454999999999998E-10</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>9</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="2">
+        <v>8.4879000000000003E-16</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2.5269000000000002E-7</v>
+      </c>
+      <c r="V9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.3555999999999999E-15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.9502999999999999E-19</v>
+      </c>
+      <c r="N10" s="3">
+        <v>6.2454999999999998E-10</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>9</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="2">
+        <v>8.4879000000000003E-16</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2.5269000000000002E-7</v>
+      </c>
+      <c r="V10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5.7306999999999996E-4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.3260999999999999E-5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>8.1560999999999995E-3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>9</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="2">
+        <v>5.1045000000000002E-7</v>
+      </c>
+      <c r="U11" s="3">
+        <v>4.5900000000000003E-3</v>
+      </c>
+      <c r="V11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5.7306999999999996E-4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3.3260999999999999E-5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>8.1560999999999995E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1">
+        <v>9</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2.9187999999999999E-7</v>
+      </c>
+      <c r="U12" s="3">
+        <v>4.1437000000000002E-3</v>
+      </c>
+      <c r="V12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9.8145000000000006E-6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>27</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="N13" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1">
+        <v>9</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="2">
+        <v>8.7719000000000003E-9</v>
+      </c>
+      <c r="U13" s="3">
+        <v>8.9179999999999999E-4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.8145000000000006E-6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="N14" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>9</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="2">
+        <v>8.7719000000000003E-9</v>
+      </c>
+      <c r="U14" s="3">
+        <v>8.9179999999999999E-4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4.0006999999999997E-6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>41</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1">
+        <v>9</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="2">
+        <v>6.7983000000000002E-12</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1.5821E-5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4.0006999999999997E-6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>41</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="N16" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1">
+        <v>9</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" s="2">
+        <v>6.7983000000000002E-12</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1.5821E-5</v>
+      </c>
+      <c r="V16" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.9106E-6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>32</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1">
+        <v>9</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="2">
+        <v>2.4725000000000001E-8</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1.3897E-3</v>
+      </c>
+      <c r="V17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.9106E-6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="N18" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3</v>
+      </c>
+      <c r="R18" s="1">
+        <v>9</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2.4725000000000001E-8</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1.3897E-3</v>
+      </c>
+      <c r="V18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-4444.8999999999996</v>
+      </c>
+      <c r="G19" s="3">
+        <v>9.3029000000000001E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2">
+        <v>7.8588999999999996E-19</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1.2536999999999999E-9</v>
+      </c>
+      <c r="O19" s="1">
+        <v>37</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.0992E-6</v>
+      </c>
+      <c r="V19" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.1541E-3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>999</v>
+      </c>
+      <c r="K20" s="1">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="2">
+        <v>7.8588999999999996E-19</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1.2536999999999999E-9</v>
+      </c>
+      <c r="O20" s="1">
+        <v>37</v>
+      </c>
+      <c r="R20" s="1">
+        <v>10</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U20" s="3">
+        <v>9.987700000000001E-7</v>
+      </c>
+      <c r="V20" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5.3921999999999999E-14</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2.8311000000000002E-15</v>
+      </c>
+      <c r="N21" s="3">
+        <v>7.5246999999999999E-8</v>
+      </c>
+      <c r="O21" s="1">
+        <v>15</v>
+      </c>
+      <c r="R21" s="1">
+        <v>10</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U21" s="3">
+        <v>7.5649999999999998E-7</v>
+      </c>
+      <c r="V21" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5.3921999999999999E-14</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2.8311000000000002E-15</v>
+      </c>
+      <c r="N22" s="3">
+        <v>7.5246999999999999E-8</v>
+      </c>
+      <c r="O22" s="1">
+        <v>15</v>
+      </c>
+      <c r="R22" s="1">
+        <v>10</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U22" s="3">
+        <v>7.6899000000000001E-7</v>
+      </c>
+      <c r="V22" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="2">
+        <v>176.16</v>
+      </c>
+      <c r="G23" s="3">
+        <v>14.547000000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="2">
+        <v>8.3727999999999994E-8</v>
+      </c>
+      <c r="N23" s="3">
+        <v>4.2501000000000003E-4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>14</v>
+      </c>
+      <c r="R23" s="1">
+        <v>10</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T23" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U23" s="3">
+        <v>4.6939000000000001E-6</v>
+      </c>
+      <c r="V23" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2">
+        <v>176.16</v>
+      </c>
+      <c r="G24" s="3">
+        <v>14.547000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="2">
+        <v>8.3727999999999994E-8</v>
+      </c>
+      <c r="N24" s="3">
+        <v>4.2501000000000003E-4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>14</v>
+      </c>
+      <c r="R24" s="1">
+        <v>10</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U24" s="3">
+        <v>8.6122000000000003E-6</v>
+      </c>
+      <c r="V24" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.8917000000000001E-4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>55</v>
+      </c>
+      <c r="K25" s="1">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4.5319000000000001E-12</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3.0106E-6</v>
+      </c>
+      <c r="O25" s="1">
+        <v>72</v>
+      </c>
+      <c r="R25" s="1">
+        <v>10</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U25" s="3">
+        <v>1.4198999999999999E-6</v>
+      </c>
+      <c r="V25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.8917000000000001E-4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>55</v>
+      </c>
+      <c r="K26" s="1">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="2">
+        <v>4.5319000000000001E-12</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3.0106E-6</v>
+      </c>
+      <c r="O26" s="1">
+        <v>72</v>
+      </c>
+      <c r="R26" s="1">
+        <v>10</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1.5106000000000001E-5</v>
+      </c>
+      <c r="V26" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-4443.3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.2844</v>
+      </c>
+      <c r="H27" s="1">
+        <v>999</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1.6756E-7</v>
+      </c>
+      <c r="N27" s="3">
+        <v>5.9462000000000002E-4</v>
+      </c>
+      <c r="O27" s="1">
+        <v>999</v>
+      </c>
+      <c r="R27" s="1">
+        <v>10</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U27" s="3">
+        <v>2.4627999999999999E-5</v>
+      </c>
+      <c r="V27" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-4443.3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.2844</v>
+      </c>
+      <c r="H28" s="1">
+        <v>999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>6</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1.6756E-7</v>
+      </c>
+      <c r="N28" s="3">
+        <v>5.9462000000000002E-4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>999</v>
+      </c>
+      <c r="R28" s="1">
+        <v>10</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T28" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1.416E-4</v>
+      </c>
+      <c r="V28" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3.0442E-6</v>
+      </c>
+      <c r="H29" s="1">
+        <v>324</v>
+      </c>
+      <c r="K29" s="1">
+        <v>6</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="2">
+        <v>3.4169000000000001E-11</v>
+      </c>
+      <c r="N29" s="3">
+        <v>8.2668000000000002E-6</v>
+      </c>
+      <c r="O29" s="1">
+        <v>37</v>
+      </c>
+      <c r="R29" s="1">
+        <v>10</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1.7272E-5</v>
+      </c>
+      <c r="V29" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="K30" s="1">
+        <v>6</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3.4169000000000001E-11</v>
+      </c>
+      <c r="N30" s="3">
+        <v>8.2668000000000002E-6</v>
+      </c>
+      <c r="O30" s="1">
+        <v>37</v>
+      </c>
+      <c r="R30" s="1">
+        <v>10</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T30" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1.4209999999999999E-5</v>
+      </c>
+      <c r="V30" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2.7285E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>21</v>
+      </c>
+      <c r="K31" s="1">
+        <v>7</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3.5460000000000001E-3</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.13794000000000001</v>
+      </c>
+      <c r="O31" s="1">
+        <v>999</v>
+      </c>
+      <c r="R31" s="1">
+        <v>11</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U31" s="3">
+        <v>4.9729000000000005E-10</v>
+      </c>
+      <c r="V31" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-1918.4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="H32" s="1">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1.1725999999999999E-5</v>
+      </c>
+      <c r="N32" s="3">
+        <v>4.4647000000000003E-3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>999</v>
+      </c>
+      <c r="R32" s="1">
+        <v>11</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T32" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U32" s="3">
+        <v>2.9894999999999997E-8</v>
+      </c>
+      <c r="V32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.2988E-13</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="2">
+        <v>6.2224000000000003E-23</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1.6702999999999999E-10</v>
+      </c>
+      <c r="O33" s="1">
+        <v>26</v>
+      </c>
+      <c r="R33" s="1">
+        <v>11</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U33" s="3">
+        <v>9.4552000000000001E-7</v>
+      </c>
+      <c r="V33" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1.2988E-13</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>7</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="2">
+        <v>6.2224000000000003E-23</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1.6702999999999999E-10</v>
+      </c>
+      <c r="O34" s="1">
+        <v>26</v>
+      </c>
+      <c r="R34" s="1">
+        <v>11</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U34" s="3">
+        <v>4.3650999999999998E-7</v>
+      </c>
+      <c r="V34" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4.5868999999999997E-3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4.8411E-10</v>
+      </c>
+      <c r="N35" s="3">
+        <v>4.4396000000000003E-4</v>
+      </c>
+      <c r="O35" s="1">
+        <v>25</v>
+      </c>
+      <c r="R35" s="1">
+        <v>11</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U35" s="3">
+        <v>4.9393999999999997E-6</v>
+      </c>
+      <c r="V35" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4.5868999999999997E-3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1">
+        <v>7</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="2">
+        <v>4.8411E-10</v>
+      </c>
+      <c r="N36" s="3">
+        <v>4.4396000000000003E-4</v>
+      </c>
+      <c r="O36" s="1">
+        <v>25</v>
+      </c>
+      <c r="R36" s="1">
+        <v>11</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U36" s="3">
+        <v>4.9393999999999997E-6</v>
+      </c>
+      <c r="V36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-1918.5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.19001999999999999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>14</v>
+      </c>
+      <c r="K37" s="1">
+        <v>7</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="2">
+        <v>8.6633000000000005E-10</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1.2218000000000001E-3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>33</v>
+      </c>
+      <c r="R37" s="1">
+        <v>11</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T37" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U37" s="3">
+        <v>9.0956000000000001E-4</v>
+      </c>
+      <c r="V37" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-1918.4</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.29633999999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>13</v>
+      </c>
+      <c r="K38" s="1">
+        <v>7</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="2">
+        <v>8.6633000000000005E-10</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1.2218000000000001E-3</v>
+      </c>
+      <c r="O38" s="1">
+        <v>33</v>
+      </c>
+      <c r="R38" s="1">
+        <v>11</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="2">
+        <v>-0.20554</v>
+      </c>
+      <c r="U38" s="3">
+        <v>6.3433999999999999E-3</v>
+      </c>
+      <c r="V38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-1918.5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.16184000000000001</v>
+      </c>
+      <c r="H39" s="1">
+        <v>20</v>
+      </c>
+      <c r="K39" s="1">
+        <v>7</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2.0658E-9</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1.2427E-3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>47</v>
+      </c>
+      <c r="R39" s="1">
+        <v>11</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U39" s="3">
+        <v>9.1157E-4</v>
+      </c>
+      <c r="V39" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-1918.3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.43744</v>
+      </c>
+      <c r="H40" s="1">
+        <v>17</v>
+      </c>
+      <c r="K40" s="1">
+        <v>7</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1.7726000000000001E-9</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.8462000000000001E-3</v>
+      </c>
+      <c r="O40" s="1">
+        <v>34</v>
+      </c>
+      <c r="R40" s="1">
+        <v>11</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T40" s="2">
+        <v>-0.20554</v>
+      </c>
+      <c r="U40" s="3">
+        <v>6.3133E-3</v>
+      </c>
+      <c r="V40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.6123E-6</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40</v>
+      </c>
+      <c r="K41" s="1">
+        <v>7</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="2">
+        <v>7.5118000000000005E-9</v>
+      </c>
+      <c r="N41" s="3">
+        <v>3.7556E-3</v>
+      </c>
+      <c r="O41" s="1">
+        <v>32</v>
+      </c>
+      <c r="R41" s="1">
+        <v>11</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T41" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="U41" s="3">
+        <v>9.0956000000000001E-4</v>
+      </c>
+      <c r="V41" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.6123E-6</v>
+      </c>
+      <c r="H42" s="1">
+        <v>40</v>
+      </c>
+      <c r="K42" s="1">
+        <v>7</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="2">
+        <v>7.5118000000000005E-9</v>
+      </c>
+      <c r="N42" s="3">
+        <v>3.7556E-3</v>
+      </c>
+      <c r="O42" s="1">
+        <v>32</v>
+      </c>
+      <c r="R42" s="1">
+        <v>11</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T42" s="2">
+        <v>-0.20554</v>
+      </c>
+      <c r="U42" s="3">
+        <v>6.3433999999999999E-3</v>
+      </c>
+      <c r="V42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-21067</v>
+      </c>
+      <c r="G43" s="3">
+        <v>15.491</v>
+      </c>
+      <c r="H43" s="1">
+        <v>21</v>
+      </c>
+      <c r="K43" s="1">
+        <v>8</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N43" s="3">
+        <v>9.5578999999999996E-7</v>
+      </c>
+      <c r="O43" s="1">
+        <v>47</v>
+      </c>
+      <c r="R43" s="1">
+        <v>12</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1.1875999999999999E-12</v>
+      </c>
+      <c r="U43" s="3">
+        <v>4.8943000000000001E-7</v>
+      </c>
+      <c r="V43" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-18432</v>
+      </c>
+      <c r="G44" s="3">
+        <v>28.658000000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>15</v>
+      </c>
+      <c r="K44" s="1">
+        <v>8</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N44" s="3">
+        <v>9.5578999999999996E-7</v>
+      </c>
+      <c r="O44" s="1">
+        <v>47</v>
+      </c>
+      <c r="R44" s="1">
+        <v>12</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" s="2">
+        <v>3.2905000000000002E-12</v>
+      </c>
+      <c r="U44" s="3">
+        <v>8.1595999999999996E-7</v>
+      </c>
+      <c r="V44" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-71055</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.4912999999999999E-12</v>
+      </c>
+      <c r="H45" s="1">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1">
+        <v>8</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N45" s="3">
+        <v>7.8927000000000003E-9</v>
+      </c>
+      <c r="O45" s="1">
+        <v>6</v>
+      </c>
+      <c r="R45" s="1">
+        <v>12</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="2">
+        <v>2.6228999999999999E-14</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1.0141000000000001E-7</v>
+      </c>
+      <c r="V45" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-71055</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1.4912999999999999E-12</v>
+      </c>
+      <c r="H46" s="1">
+        <v>4</v>
+      </c>
+      <c r="K46" s="1">
+        <v>8</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N46" s="3">
+        <v>7.8927000000000003E-9</v>
+      </c>
+      <c r="O46" s="1">
+        <v>6</v>
+      </c>
+      <c r="R46" s="1">
+        <v>12</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1.349E-12</v>
+      </c>
+      <c r="U46" s="3">
+        <v>6.1938999999999999E-7</v>
+      </c>
+      <c r="V46" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-71055</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5.2700999999999998E-3</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4</v>
+      </c>
+      <c r="K47" s="1">
+        <v>8</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N47" s="3">
+        <v>4.2389000000000001E-4</v>
+      </c>
+      <c r="O47" s="1">
+        <v>6</v>
+      </c>
+      <c r="R47" s="1">
+        <v>12</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47" s="2">
+        <v>6.0964000000000002E-8</v>
+      </c>
+      <c r="U47" s="3">
+        <v>1.5558999999999999E-4</v>
+      </c>
+      <c r="V47" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-71055</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5.2700999999999998E-3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4</v>
+      </c>
+      <c r="K48" s="1">
+        <v>8</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N48" s="3">
+        <v>4.2389000000000001E-4</v>
+      </c>
+      <c r="O48" s="1">
+        <v>6</v>
+      </c>
+      <c r="R48" s="1">
+        <v>12</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T48" s="2">
+        <v>3.7266E-6</v>
+      </c>
+      <c r="U48" s="3">
+        <v>9.2256E-4</v>
+      </c>
+      <c r="V48" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-33604</v>
+      </c>
+      <c r="G49" s="3">
+        <v>35.511000000000003</v>
+      </c>
+      <c r="H49" s="1">
+        <v>14</v>
+      </c>
+      <c r="K49" s="1">
+        <v>8</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N49" s="3">
+        <v>9.5958000000000002E-2</v>
+      </c>
+      <c r="O49" s="1">
+        <v>111</v>
+      </c>
+      <c r="R49" s="1">
+        <v>12</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T49" s="2">
+        <v>8.3888E-10</v>
+      </c>
+      <c r="U49" s="3">
+        <v>1.3156000000000001E-5</v>
+      </c>
+      <c r="V49" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-31340</v>
+      </c>
+      <c r="G50" s="3">
+        <v>36.92</v>
+      </c>
+      <c r="H50" s="1">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1">
+        <v>8</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N50" s="3">
+        <v>9.5958000000000002E-2</v>
+      </c>
+      <c r="O50" s="1">
+        <v>111</v>
+      </c>
+      <c r="R50" s="1">
+        <v>12</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50" s="2">
+        <v>1.5213999999999999E-9</v>
+      </c>
+      <c r="U50" s="3">
+        <v>2.2861999999999999E-5</v>
+      </c>
+      <c r="V50" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-14102</v>
+      </c>
+      <c r="G51" s="3">
+        <v>70.361999999999995</v>
+      </c>
+      <c r="H51" s="1">
+        <v>20</v>
+      </c>
+      <c r="K51" s="1">
+        <v>8</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N51" s="3">
+        <v>4.4632999999999999E-4</v>
+      </c>
+      <c r="O51" s="1">
+        <v>109</v>
+      </c>
+      <c r="R51" s="1">
+        <v>12</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0.37007000000000001</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="V51" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="52" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-12469</v>
+      </c>
+      <c r="G52" s="3">
+        <v>69.858000000000004</v>
+      </c>
+      <c r="H52" s="1">
+        <v>17</v>
+      </c>
+      <c r="K52" s="1">
+        <v>8</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N52" s="3">
+        <v>4.4632999999999999E-4</v>
+      </c>
+      <c r="O52" s="1">
+        <v>109</v>
+      </c>
+      <c r="R52" s="1">
+        <v>12</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0.52288999999999997</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0.85119</v>
+      </c>
+      <c r="V52" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="53" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="1"/>
+      <c r="K53" s="1">
+        <v>8</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M53" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="N53" s="3">
+        <v>2.2089000000000001E-6</v>
+      </c>
+      <c r="O53" s="1">
+        <v>999</v>
+      </c>
+      <c r="R53" s="1">
+        <v>12</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T53" s="2">
+        <v>3.1553999999999998E-10</v>
+      </c>
+      <c r="U53" s="3">
+        <v>1.113E-5</v>
+      </c>
+      <c r="V53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="1"/>
+      <c r="K54" s="1">
+        <v>8</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R54" s="1">
+        <v>12</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T54" s="2">
+        <v>1.3157E-8</v>
+      </c>
+      <c r="U54" s="3">
+        <v>5.6165999999999997E-5</v>
+      </c>
+      <c r="V54" s="1">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35E8581-B058-4935-9BF3-7CC0E212A8A1}">
+  <dimension ref="F11:AK58"/>
+  <sheetViews>
+    <sheetView topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28:AK40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8.8998999999999999E-7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>37</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2.7285E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>5</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="2">
+        <v>5.6718999999999997E-20</v>
+      </c>
+      <c r="T12" s="3">
+        <v>3.3680000000000002E-10</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="7">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="2">
+        <v>7.8588999999999996E-19</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1.2536999999999999E-9</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1.4857E-12</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>9.4666999999999999E-7</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F13" s="8"/>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8.8998999999999999E-7</v>
+      </c>
+      <c r="J13" s="1">
+        <v>37</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="2">
+        <v>-1918.4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="O13" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="2">
+        <v>5.6718999999999997E-20</v>
+      </c>
+      <c r="T13" s="3">
+        <v>3.3680000000000002E-10</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="8"/>
+      <c r="W13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="2">
+        <v>7.8588999999999996E-19</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1.2536999999999999E-9</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1.5852E-12</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>9.7824999999999991E-7</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F14" s="8"/>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3.3555999999999999E-15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.2988E-13</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1.9502999999999999E-19</v>
+      </c>
+      <c r="T14" s="3">
+        <v>6.2454999999999998E-10</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="2">
+        <v>2.8311000000000002E-15</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>7.5246999999999999E-8</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>8.4879000000000003E-16</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>2.5269000000000002E-7</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F15" s="8"/>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3.3555999999999999E-15</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.2988E-13</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1.9502999999999999E-19</v>
+      </c>
+      <c r="T15" s="3">
+        <v>6.2454999999999998E-10</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="2">
+        <v>2.8311000000000002E-15</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>7.5246999999999999E-8</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>8.4879000000000003E-16</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>2.5269000000000002E-7</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F16" s="8"/>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5.7306999999999996E-4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="N16" s="3">
+        <v>4.5868999999999997E-3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="2">
+        <v>3.3260999999999999E-5</v>
+      </c>
+      <c r="T16" s="3">
+        <v>8.1560999999999995E-3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>3</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="2">
+        <v>8.3727999999999994E-8</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>4.2501000000000003E-4</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>5.1045000000000002E-7</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>4.5900000000000003E-3</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F17" s="8"/>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5.7306999999999996E-4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4.5868999999999997E-3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="2">
+        <v>3.3260999999999999E-5</v>
+      </c>
+      <c r="T17" s="3">
+        <v>8.1560999999999995E-3</v>
+      </c>
+      <c r="U17" s="1">
+        <v>3</v>
+      </c>
+      <c r="V17" s="8"/>
+      <c r="W17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" s="2">
+        <v>8.3727999999999994E-8</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>4.2501000000000003E-4</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>14</v>
+      </c>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>2.9187999999999999E-7</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>4.1437000000000002E-3</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F18" s="8"/>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I18" s="3">
+        <v>9.8145000000000006E-6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>27</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="2">
+        <v>-1918.5</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.19001999999999999</v>
+      </c>
+      <c r="O18" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="T18" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3</v>
+      </c>
+      <c r="V18" s="8"/>
+      <c r="W18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="2">
+        <v>4.5319000000000001E-12</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>3.0106E-6</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>8.7719000000000003E-9</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>8.9179999999999999E-4</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F19" s="8"/>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I19" s="3">
+        <v>9.8145000000000006E-6</v>
+      </c>
+      <c r="J19" s="1">
+        <v>27</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="2">
+        <v>-1918.4</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.29633999999999999</v>
+      </c>
+      <c r="O19" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="T19" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="U19" s="1">
+        <v>3</v>
+      </c>
+      <c r="V19" s="8"/>
+      <c r="W19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="2">
+        <v>4.5319000000000001E-12</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>3.0106E-6</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>72</v>
+      </c>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>8.7719000000000003E-9</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>8.9179999999999999E-4</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F20" s="8"/>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4.0006999999999997E-6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>41</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="2">
+        <v>-1918.5</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.16184000000000001</v>
+      </c>
+      <c r="O20" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="T20" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3</v>
+      </c>
+      <c r="V20" s="8"/>
+      <c r="W20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1.6756E-7</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>5.9462000000000002E-4</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>999</v>
+      </c>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>6.7983000000000002E-12</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1.5821E-5</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F21" s="8"/>
+      <c r="G21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4.0006999999999997E-6</v>
+      </c>
+      <c r="J21" s="1">
+        <v>41</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="2">
+        <v>-1918.3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.43744</v>
+      </c>
+      <c r="O21" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="T21" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="U21" s="1">
+        <v>3</v>
+      </c>
+      <c r="V21" s="8"/>
+      <c r="W21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1.6756E-7</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>5.9462000000000002E-4</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>999</v>
+      </c>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>6.7983000000000002E-12</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>1.5821E-5</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F22" s="8"/>
+      <c r="G22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.9106E-6</v>
+      </c>
+      <c r="J22" s="1">
+        <v>32</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1.6123E-6</v>
+      </c>
+      <c r="O22" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="T22" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3</v>
+      </c>
+      <c r="V22" s="8"/>
+      <c r="W22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="2">
+        <v>3.4169000000000001E-11</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>8.2668000000000002E-6</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>2.4725000000000001E-8</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>1.3897E-3</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-67.957999999999998</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.9106E-6</v>
+      </c>
+      <c r="J23" s="1">
+        <v>32</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="2">
+        <v>-1918.6</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1.6123E-6</v>
+      </c>
+      <c r="O23" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="2">
+        <v>9.7318000000000006E-6</v>
+      </c>
+      <c r="T23" s="3">
+        <v>4.4117000000000002E-3</v>
+      </c>
+      <c r="U23" s="1">
+        <v>3</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="W23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X23" s="2">
+        <v>3.4169000000000001E-11</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>8.2668000000000002E-6</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>2.4725000000000001E-8</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1.3897E-3</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F29" s="7">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-4444.8999999999996</v>
+      </c>
+      <c r="I29" s="3">
+        <v>9.3029000000000001E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>999</v>
+      </c>
+      <c r="K29" s="7">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="2">
+        <v>-21067</v>
+      </c>
+      <c r="N29" s="3">
+        <v>15.491</v>
+      </c>
+      <c r="O29" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>7</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="2">
+        <v>3.5460000000000001E-3</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.13794000000000001</v>
+      </c>
+      <c r="U29" s="1">
+        <v>999</v>
+      </c>
+      <c r="V29" s="7">
+        <v>8</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X29" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>9.5578999999999996E-7</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>47</v>
+      </c>
+      <c r="AG29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>1.1875999999999999E-12</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>4.8943000000000001E-7</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F30" s="8"/>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3.1541E-3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>999</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="2">
+        <v>-18432</v>
+      </c>
+      <c r="N30" s="3">
+        <v>28.658000000000001</v>
+      </c>
+      <c r="O30" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1.1725999999999999E-5</v>
+      </c>
+      <c r="T30" s="3">
+        <v>4.4647000000000003E-3</v>
+      </c>
+      <c r="U30" s="1">
+        <v>999</v>
+      </c>
+      <c r="V30" s="8"/>
+      <c r="W30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X30" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>9.5578999999999996E-7</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>47</v>
+      </c>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>3.2905000000000002E-12</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>8.1595999999999996E-7</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F31" s="8"/>
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5.3921999999999999E-14</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="2">
+        <v>-71055</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1.4912999999999999E-12</v>
+      </c>
+      <c r="O31" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S31" s="2">
+        <v>6.2224000000000003E-23</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1.6702999999999999E-10</v>
+      </c>
+      <c r="U31" s="1">
+        <v>26</v>
+      </c>
+      <c r="V31" s="8"/>
+      <c r="W31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X31" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>7.8927000000000003E-9</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>2.6228999999999999E-14</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>1.0141000000000001E-7</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F32" s="8"/>
+      <c r="G32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5.3921999999999999E-14</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="2">
+        <v>-71055</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1.4912999999999999E-12</v>
+      </c>
+      <c r="O32" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" s="2">
+        <v>6.2224000000000003E-23</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1.6702999999999999E-10</v>
+      </c>
+      <c r="U32" s="1">
+        <v>26</v>
+      </c>
+      <c r="V32" s="8"/>
+      <c r="W32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X32" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>7.8927000000000003E-9</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>1.349E-12</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>6.1938999999999999E-7</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F33" s="8"/>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="2">
+        <v>176.16</v>
+      </c>
+      <c r="I33" s="3">
+        <v>14.547000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" s="2">
+        <v>-71055</v>
+      </c>
+      <c r="N33" s="3">
+        <v>5.2700999999999998E-3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" s="2">
+        <v>4.8411E-10</v>
+      </c>
+      <c r="T33" s="3">
+        <v>4.4396000000000003E-4</v>
+      </c>
+      <c r="U33" s="1">
+        <v>25</v>
+      </c>
+      <c r="V33" s="8"/>
+      <c r="W33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X33" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>4.2389000000000001E-4</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>6.0964000000000002E-8</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>1.5558999999999999E-4</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F34" s="8"/>
+      <c r="G34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="2">
+        <v>176.16</v>
+      </c>
+      <c r="I34" s="3">
+        <v>14.547000000000001</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="2">
+        <v>-71055</v>
+      </c>
+      <c r="N34" s="3">
+        <v>5.2700999999999998E-3</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S34" s="2">
+        <v>4.8411E-10</v>
+      </c>
+      <c r="T34" s="3">
+        <v>4.4396000000000003E-4</v>
+      </c>
+      <c r="U34" s="1">
+        <v>25</v>
+      </c>
+      <c r="V34" s="8"/>
+      <c r="W34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X34" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>4.2389000000000001E-4</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>3.7266E-6</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>9.2256E-4</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F35" s="8"/>
+      <c r="G35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.8917000000000001E-4</v>
+      </c>
+      <c r="J35" s="1">
+        <v>55</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="2">
+        <v>-33604</v>
+      </c>
+      <c r="N35" s="3">
+        <v>35.511000000000003</v>
+      </c>
+      <c r="O35" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="2">
+        <v>8.6633000000000005E-10</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1.2218000000000001E-3</v>
+      </c>
+      <c r="U35" s="1">
+        <v>33</v>
+      </c>
+      <c r="V35" s="8"/>
+      <c r="W35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>9.5958000000000002E-2</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>111</v>
+      </c>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>8.3888E-10</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>1.3156000000000001E-5</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F36" s="8"/>
+      <c r="G36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.8917000000000001E-4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>55</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="2">
+        <v>-31340</v>
+      </c>
+      <c r="N36" s="3">
+        <v>36.92</v>
+      </c>
+      <c r="O36" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S36" s="2">
+        <v>8.6633000000000005E-10</v>
+      </c>
+      <c r="T36" s="3">
+        <v>1.2218000000000001E-3</v>
+      </c>
+      <c r="U36" s="1">
+        <v>33</v>
+      </c>
+      <c r="V36" s="8"/>
+      <c r="W36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>9.5958000000000002E-2</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>111</v>
+      </c>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>1.5213999999999999E-9</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>2.2861999999999999E-5</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F37" s="8"/>
+      <c r="G37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-4443.3</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1.2844</v>
+      </c>
+      <c r="J37" s="1">
+        <v>999</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="2">
+        <v>-14102</v>
+      </c>
+      <c r="N37" s="3">
+        <v>70.361999999999995</v>
+      </c>
+      <c r="O37" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S37" s="2">
+        <v>2.0658E-9</v>
+      </c>
+      <c r="T37" s="3">
+        <v>1.2427E-3</v>
+      </c>
+      <c r="U37" s="1">
+        <v>47</v>
+      </c>
+      <c r="V37" s="8"/>
+      <c r="W37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>4.4632999999999999E-4</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>109</v>
+      </c>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>0.37007000000000001</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+      <c r="G38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-4443.3</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.2844</v>
+      </c>
+      <c r="J38" s="1">
+        <v>999</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="2">
+        <v>-12469</v>
+      </c>
+      <c r="N38" s="3">
+        <v>69.858000000000004</v>
+      </c>
+      <c r="O38" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1.7726000000000001E-9</v>
+      </c>
+      <c r="T38" s="3">
+        <v>1.8462000000000001E-3</v>
+      </c>
+      <c r="U38" s="1">
+        <v>34</v>
+      </c>
+      <c r="V38" s="8"/>
+      <c r="W38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X38" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>4.4632999999999999E-4</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>109</v>
+      </c>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>0.52288999999999997</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>0.85119</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F39" s="8"/>
+      <c r="G39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-4449.2</v>
+      </c>
+      <c r="I39" s="3">
+        <v>3.0442E-6</v>
+      </c>
+      <c r="J39" s="1">
+        <v>324</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="1"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S39" s="2">
+        <v>7.5118000000000005E-9</v>
+      </c>
+      <c r="T39" s="3">
+        <v>3.7556E-3</v>
+      </c>
+      <c r="U39" s="1">
+        <v>32</v>
+      </c>
+      <c r="V39" s="8"/>
+      <c r="W39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X39" s="2">
+        <v>3.9866000000000001</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>2.2089000000000001E-6</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>999</v>
+      </c>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>3.1553999999999998E-10</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>1.113E-5</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F40" s="9"/>
+      <c r="G40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="1"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S40" s="2">
+        <v>7.5118000000000005E-9</v>
+      </c>
+      <c r="T40" s="3">
+        <v>3.7556E-3</v>
+      </c>
+      <c r="U40" s="1">
+        <v>32</v>
+      </c>
+      <c r="V40" s="9"/>
+      <c r="W40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>1.3157E-8</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>5.6165999999999997E-5</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="AB46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK46" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="AB47" s="7">
+        <v>10</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>1.0992E-6</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>999</v>
+      </c>
+      <c r="AG47" s="7">
+        <v>11</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>4.9729000000000005E-10</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>9.987700000000001E-7</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>508</v>
+      </c>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>2.9894999999999997E-8</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>7.5649999999999998E-7</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI49" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AJ49" s="3">
+        <v>9.4552000000000001E-7</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>7.6899000000000001E-7</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AJ50" s="3">
+        <v>4.3650999999999998E-7</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>4.6939000000000001E-6</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AJ51" s="3">
+        <v>4.9393999999999997E-6</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>8.6122000000000003E-6</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AJ52" s="3">
+        <v>4.9393999999999997E-6</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>1.4198999999999999E-6</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AJ53" s="3">
+        <v>9.0956000000000001E-4</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>1.5106000000000001E-5</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI54" s="2">
+        <v>-0.20554</v>
+      </c>
+      <c r="AJ54" s="3">
+        <v>6.3433999999999999E-3</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>2.4627999999999999E-5</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>158</v>
+      </c>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI55" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AJ55" s="3">
+        <v>9.1157E-4</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>1.416E-4</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>103</v>
+      </c>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI56" s="2">
+        <v>-0.20554</v>
+      </c>
+      <c r="AJ56" s="3">
+        <v>6.3133E-3</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>1.7272E-5</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AJ57" s="3">
+        <v>9.0956000000000001E-4</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="28:37" x14ac:dyDescent="0.25">
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>-0.20557</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>1.4209999999999999E-5</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI58" s="2">
+        <v>-0.20554</v>
+      </c>
+      <c r="AJ58" s="3">
+        <v>6.3433999999999999E-3</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AB12:AB23"/>
+    <mergeCell ref="AB47:AB58"/>
+    <mergeCell ref="AG47:AG58"/>
+    <mergeCell ref="AG29:AG40"/>
+    <mergeCell ref="F12:F23"/>
+    <mergeCell ref="K12:K23"/>
+    <mergeCell ref="F29:F40"/>
+    <mergeCell ref="K29:K40"/>
+    <mergeCell ref="Q12:Q23"/>
+    <mergeCell ref="V12:V23"/>
+    <mergeCell ref="Q29:Q40"/>
+    <mergeCell ref="V29:V40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3079AA7-0495-4C0F-A453-33E9BE39732C}">
+  <dimension ref="G19:Z65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="1">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4.6969999999999998E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>38</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5.4365999999999998E-2</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8.5987000000000008E-3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.5628E-2</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.8249999999999999E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.1608E-2</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="1">
+        <v>28</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5.7667999999999997E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>28</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5.2574999999999997E-2</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="1">
+        <v>42</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4.2646000000000003E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>42</v>
+      </c>
+      <c r="L25" s="1">
+        <v>6.2317999999999998E-2</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="1">
+        <v>33</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6.4021999999999996E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>33</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5.0803000000000001E-2</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="35" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z35" s="13"/>
+    </row>
+    <row r="36" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U36" s="16"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1.0666E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+      <c r="L37" s="10">
+        <v>4.1926999999999997E-3</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>1.5344E-2</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S37" s="10">
+        <v>1.5445E-2</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W37" s="1">
+        <v>536</v>
+      </c>
+      <c r="X37" s="10">
+        <v>1.0751E-2</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>406</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>1.0626E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+      <c r="H38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+      <c r="J38" s="10">
+        <v>6.9084000000000003E-3</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5</v>
+      </c>
+      <c r="L38" s="10">
+        <v>6.6058999999999996E-3</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" s="1">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>2.2908000000000001E-2</v>
+      </c>
+      <c r="R38" s="1">
+        <v>27</v>
+      </c>
+      <c r="S38" s="10">
+        <v>3.7940999999999999E-3</v>
+      </c>
+      <c r="U38" s="5"/>
+      <c r="V38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W38" s="1">
+        <v>16</v>
+      </c>
+      <c r="X38" s="10">
+        <v>2.7550000000000002E-2</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>8.4610999999999992E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+      <c r="H39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+      <c r="J39" s="10">
+        <v>5.4289999999999998E-3</v>
+      </c>
+      <c r="K39" s="1">
+        <v>4</v>
+      </c>
+      <c r="L39" s="10">
+        <v>7.8180000000000003E-3</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>3.2390000000000001E-3</v>
+      </c>
+      <c r="R39" s="1">
+        <v>26</v>
+      </c>
+      <c r="S39" s="10">
+        <v>3.9420999999999996E-3</v>
+      </c>
+      <c r="U39" s="5"/>
+      <c r="V39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W39" s="1">
+        <v>12</v>
+      </c>
+      <c r="X39" s="10">
+        <v>6.5382000000000001E-3</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>4.2475000000000004E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+      <c r="H40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3</v>
+      </c>
+      <c r="J40" s="10">
+        <v>2.8251999999999999E-3</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3</v>
+      </c>
+      <c r="L40" s="10">
+        <v>3.4459999999999998E-3</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P40" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>2.4315999999999999E-3</v>
+      </c>
+      <c r="R40" s="1">
+        <v>34</v>
+      </c>
+      <c r="S40" s="10">
+        <v>2.7485000000000001E-3</v>
+      </c>
+      <c r="U40" s="5"/>
+      <c r="V40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W40" s="1">
+        <v>15</v>
+      </c>
+      <c r="X40" s="10">
+        <v>4.7311999999999996E-3</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>2.5458E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+      <c r="H41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
+      <c r="J41" s="10">
+        <v>3.1291000000000001E-3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>3</v>
+      </c>
+      <c r="L41" s="10">
+        <v>2.5322000000000001E-3</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P41" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>3.1370999999999999E-3</v>
+      </c>
+      <c r="R41" s="1">
+        <v>35</v>
+      </c>
+      <c r="S41" s="10">
+        <v>4.1329000000000001E-3</v>
+      </c>
+      <c r="U41" s="5"/>
+      <c r="V41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W41" s="1">
+        <v>24</v>
+      </c>
+      <c r="X41" s="10">
+        <v>2.519E-3</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>5.7387999999999996E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G42" s="6"/>
+      <c r="H42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="10">
+        <v>2.885E-3</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3</v>
+      </c>
+      <c r="L42" s="10">
+        <v>5.9189000000000004E-3</v>
+      </c>
+      <c r="N42" s="6"/>
+      <c r="O42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>5.0309999999999999E-3</v>
+      </c>
+      <c r="R42" s="1">
+        <v>33</v>
+      </c>
+      <c r="S42" s="10">
+        <v>3.9452999999999997E-3</v>
+      </c>
+      <c r="U42" s="6"/>
+      <c r="V42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W42" s="1">
+        <v>15</v>
+      </c>
+      <c r="X42" s="10">
+        <v>2.8449999999999999E-3</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>3.9667000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="1">
+        <v>38</v>
+      </c>
+      <c r="J43" s="10">
+        <v>7.6905999999999997E-3</v>
+      </c>
+      <c r="K43" s="1">
+        <v>38</v>
+      </c>
+      <c r="L43" s="10">
+        <v>3.2204E-3</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>2.9876999999999998E-3</v>
+      </c>
+      <c r="R43" s="1">
+        <v>48</v>
+      </c>
+      <c r="S43" s="10">
+        <v>5.2741000000000003E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+      <c r="H44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="1">
+        <v>16</v>
+      </c>
+      <c r="J44" s="10">
+        <v>5.8285000000000003E-3</v>
+      </c>
+      <c r="K44" s="1">
+        <v>16</v>
+      </c>
+      <c r="L44" s="10">
+        <v>4.9868999999999998E-3</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P44" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>4.2288999999999998E-3</v>
+      </c>
+      <c r="R44" s="1">
+        <v>7</v>
+      </c>
+      <c r="S44" s="10">
+        <v>4.1222000000000003E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G45" s="5"/>
+      <c r="H45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="1">
+        <v>15</v>
+      </c>
+      <c r="J45" s="10">
+        <v>6.2120999999999999E-3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>15</v>
+      </c>
+      <c r="L45" s="10">
+        <v>6.0590000000000001E-3</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>3.4042E-3</v>
+      </c>
+      <c r="R45" s="1">
+        <v>7</v>
+      </c>
+      <c r="S45" s="10">
+        <v>3.4080999999999998E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
+      <c r="H46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="1">
+        <v>73</v>
+      </c>
+      <c r="J46" s="10">
+        <v>3.4911E-3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>73</v>
+      </c>
+      <c r="L46" s="10">
+        <v>3.9129999999999998E-3</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P46" s="1">
+        <v>112</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>1.6390999999999999E-2</v>
+      </c>
+      <c r="R46" s="1">
+        <v>112</v>
+      </c>
+      <c r="S46" s="10">
+        <v>1.7801000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G47" s="5"/>
+      <c r="H47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="10">
+        <v>1.2452E-2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="10">
+        <v>1.2444999999999999E-2</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P47" s="1">
+        <v>110</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>1.3283E-2</v>
+      </c>
+      <c r="R47" s="1">
+        <v>110</v>
+      </c>
+      <c r="S47" s="10">
+        <v>1.5056999999999999E-2</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G48" s="6"/>
+      <c r="H48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="1">
+        <v>38</v>
+      </c>
+      <c r="J48" s="10">
+        <v>3.0718999999999998E-3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>38</v>
+      </c>
+      <c r="L48" s="10">
+        <v>4.3111E-3</v>
+      </c>
+      <c r="N48" s="6"/>
+      <c r="O48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>5.6616E-2</v>
+      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="10"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="U49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W49" s="1">
+        <v>128</v>
+      </c>
+      <c r="X49" s="10">
+        <v>8.7048999999999998E-3</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>85</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>3.7477000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="U50" s="5"/>
+      <c r="V50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W50" s="1">
+        <v>74</v>
+      </c>
+      <c r="X50" s="10">
+        <v>5.0313999999999998E-2</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>29</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>1.626E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="U51" s="5"/>
+      <c r="V51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W51" s="1">
+        <v>17</v>
+      </c>
+      <c r="X51" s="10">
+        <v>3.7307999999999998E-3</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>49</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>4.6018999999999999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W52" s="1">
+        <v>54</v>
+      </c>
+      <c r="X52" s="10">
+        <v>6.1558000000000003E-3</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>52</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>4.2643000000000004E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U53" s="5"/>
+      <c r="V53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X53" s="10">
+        <v>1.2146000000000001E-2</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>1.346E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G54" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="10">
+        <v>2.3255000000000001E-2</v>
+      </c>
+      <c r="K54" s="11">
+        <v>509</v>
+      </c>
+      <c r="L54" s="10">
+        <v>1.9925999999999999E-2</v>
+      </c>
+      <c r="U54" s="6"/>
+      <c r="V54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W54" s="1">
+        <v>53</v>
+      </c>
+      <c r="X54" s="10">
+        <v>3.3482999999999998E-3</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>46</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>3.4832999999999999E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G55" s="5"/>
+      <c r="H55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="1">
+        <v>26</v>
+      </c>
+      <c r="J55" s="10">
+        <v>7.9582999999999997E-3</v>
+      </c>
+      <c r="K55" s="11">
+        <v>17</v>
+      </c>
+      <c r="L55" s="10">
+        <v>4.6211999999999998E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G56" s="5"/>
+      <c r="H56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="1">
+        <v>15</v>
+      </c>
+      <c r="J56" s="10">
+        <v>3.2921999999999999E-3</v>
+      </c>
+      <c r="K56" s="1">
+        <v>15</v>
+      </c>
+      <c r="L56" s="10">
+        <v>4.3392999999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G57" s="5"/>
+      <c r="H57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" s="1">
+        <v>26</v>
+      </c>
+      <c r="J57" s="10">
+        <v>4.7169999999999998E-3</v>
+      </c>
+      <c r="K57" s="1">
+        <v>23</v>
+      </c>
+      <c r="L57" s="10">
+        <v>5.1002E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G58" s="5"/>
+      <c r="H58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" s="1">
+        <v>159</v>
+      </c>
+      <c r="J58" s="10">
+        <v>7.3698000000000001E-3</v>
+      </c>
+      <c r="K58" s="11">
+        <v>104</v>
+      </c>
+      <c r="L58" s="10">
+        <v>6.1190999999999997E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G59" s="6"/>
+      <c r="H59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="1">
+        <v>23</v>
+      </c>
+      <c r="J59" s="10">
+        <v>2.8038E-3</v>
+      </c>
+      <c r="K59" s="1">
+        <v>23</v>
+      </c>
+      <c r="L59" s="10">
+        <v>3.5722000000000002E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="1">
+        <v>14</v>
+      </c>
+      <c r="J60" s="10">
+        <v>6.7555999999999996E-3</v>
+      </c>
+      <c r="K60" s="1">
+        <v>11</v>
+      </c>
+      <c r="L60" s="10">
+        <v>3.1895000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G61" s="5"/>
+      <c r="H61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" s="1">
+        <v>25</v>
+      </c>
+      <c r="J61" s="10">
+        <v>1.3346999999999999E-2</v>
+      </c>
+      <c r="K61" s="11">
+        <v>17</v>
+      </c>
+      <c r="L61" s="10">
+        <v>6.3895000000000002E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G62" s="5"/>
+      <c r="H62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I62" s="1">
+        <v>10</v>
+      </c>
+      <c r="J62" s="10">
+        <v>4.3581000000000002E-3</v>
+      </c>
+      <c r="K62" s="1">
+        <v>10</v>
+      </c>
+      <c r="L62" s="10">
+        <v>4.5723999999999999E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G63" s="5"/>
+      <c r="H63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" s="1">
+        <v>10</v>
+      </c>
+      <c r="J63" s="10">
+        <v>5.6134999999999996E-3</v>
+      </c>
+      <c r="K63" s="11">
+        <v>6</v>
+      </c>
+      <c r="L63" s="10">
+        <v>4.3119999999999999E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G64" s="5"/>
+      <c r="H64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="1">
+        <v>10</v>
+      </c>
+      <c r="J64" s="10">
+        <v>4.3522999999999999E-3</v>
+      </c>
+      <c r="K64" s="11">
+        <v>6</v>
+      </c>
+      <c r="L64" s="10">
+        <v>4.0396E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G65" s="6"/>
+      <c r="H65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" s="1">
+        <v>10</v>
+      </c>
+      <c r="J65" s="10">
+        <v>4.7787999999999997E-3</v>
+      </c>
+      <c r="K65" s="11">
+        <v>6</v>
+      </c>
+      <c r="L65" s="10">
+        <v>3.771E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="U49:U54"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="U35:V36"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="G43:G48"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="N43:N48"/>
+    <mergeCell ref="U37:U42"/>
+    <mergeCell ref="G54:G59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>